--- a/Tickets/2025/8352510719/Covea SB.xlsx
+++ b/Tickets/2025/8352510719/Covea SB.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codebase\Development\SQLDev\Tickets\2025\8352510719\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{271A7369-5938-4275-AF60-8AE01AAFC205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16E8B7F-F1A2-439C-8081-DD67480847EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{A5A40750-9285-4677-8658-FA7E9323E0A0}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="2" xr2:uid="{A5A40750-9285-4677-8658-FA7E9323E0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Excess" sheetId="1" r:id="rId1"/>
     <sheet name="TradeELPL" sheetId="2" r:id="rId2"/>
+    <sheet name="Hardcoded Refers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="467">
   <si>
     <t>SchemeExcessID</t>
   </si>
@@ -1345,6 +1346,99 @@
   </si>
   <si>
     <t>Word Processing</t>
+  </si>
+  <si>
+    <t>PL Employees &gt; Limit</t>
+  </si>
+  <si>
+    <t>Maximum 0f 10 Manual Employees</t>
+  </si>
+  <si>
+    <t>EL Non Manual &gt; Limt</t>
+  </si>
+  <si>
+    <t>Maximum 0f 10 Non Manual Employees</t>
+  </si>
+  <si>
+    <t>EL Rate = 0 AND ELManual OR EL Non Manual &gt; 0</t>
+  </si>
+  <si>
+    <t>No EL rates against this trade</t>
+  </si>
+  <si>
+    <t>Claim Flag IS NOT NULL OR 1</t>
+  </si>
+  <si>
+    <t>No Loading rule to a claim of *Largest Claim* per section premium of *Claim Premium* for a period of *Claim Months* months</t>
+  </si>
+  <si>
+    <t>Claim Limit &lt;= Largest Claim</t>
+  </si>
+  <si>
+    <t>Proposer has made a Claim in excess of *Largest Claim*</t>
+  </si>
+  <si>
+    <t>Tool Claim in Last 5 Years</t>
+  </si>
+  <si>
+    <t>Proposer has made *Number of claim* Claims in the last 5 years</t>
+  </si>
+  <si>
+    <t>Primary Risk = None</t>
+  </si>
+  <si>
+    <t>No Primary Trade has been selected.</t>
+  </si>
+  <si>
+    <t>Scheme = 1370 AND Quote Stage = REN</t>
+  </si>
+  <si>
+    <t>Scheme is no longer available</t>
+  </si>
+  <si>
+    <t>Roll Over to Companion at Renewal</t>
+  </si>
+  <si>
+    <t>Scheme = 1370 AND Quote Stage = NB</t>
+  </si>
+  <si>
+    <t>Previous Insurer</t>
+  </si>
+  <si>
+    <t>Company Status = Limited AND Work Away Directors + Clerical Directors = 0</t>
+  </si>
+  <si>
+    <t>Limited Company: Total Number of Directors are 0</t>
+  </si>
+  <si>
+    <t>PremiumTotal = 0</t>
+  </si>
+  <si>
+    <t>Premium Total cannot be £0.00</t>
+  </si>
+  <si>
+    <t>Liab Prem = 0</t>
+  </si>
+  <si>
+    <t>Public Liability cannot be £0.00</t>
+  </si>
+  <si>
+    <t>Employees Liability cannot be £0.00</t>
+  </si>
+  <si>
+    <t>Accident Income Cover cannot be £0.00</t>
+  </si>
+  <si>
+    <t>Professional Indemnity Cover cannot be £0.00</t>
+  </si>
+  <si>
+    <t>Empl Prem = 0 AND EL Manual Emp &gt; 0</t>
+  </si>
+  <si>
+    <t>PAAS Prem = 0 AND AccIncome Cover = Y</t>
+  </si>
+  <si>
+    <t>Prof Prem = 0 AND Prof Indm Table PI = Y</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E656132-F2C6-44F3-A310-0B397FADB16F}">
   <dimension ref="A1:T622"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -40411,4 +40505,151 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F82FF2C-BBF1-4A0F-8E6C-1DBF4451CD27}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>